--- a/ocms/src/test/resources/DownloadedFiles/Recipient (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Recipient (1).xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">BENGTETH\Administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">Fax Addres</t>
+    <t xml:space="preserve">Fax </t>
   </si>
   <si>
     <t xml:space="preserve">Recipient</t>
@@ -261,7 +261,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>43630.654861111114</v>
+        <v>43630.69965277778</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">

--- a/ocms/src/test/resources/DownloadedFiles/Recipient (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Recipient (1).xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">9987288</t>
   </si>
   <si>
-    <t xml:space="preserve">26/04/2020 01:39:15</t>
+    <t xml:space="preserve">27/04/2020 13:04:16</t>
   </si>
 </sst>
 </file>
